--- a/output.xlsx
+++ b/output.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>643dnke@gmail.com</t>
+          <t>n463ekd@gmail.com</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -620,7 +620,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>a47ed7l@gmail.cmm</t>
+          <t>d7a47el@gmail.cmm</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -683,7 +683,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>gg63ira4@gmail.com</t>
+          <t>4ia6g3rg@gmail.com</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -746,7 +746,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>8gin4k9@gmail.cfm</t>
+          <t>ig8nk49@gmail.cfm</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -809,7 +809,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>nb58e4h@gmail.cmm</t>
+          <t>nbe54h8@gmail.cmm</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -872,7 +872,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>i14v7la@gmail.cfm</t>
+          <t>7vla1i4@gmail.cfm</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -935,7 +935,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>aj8e9m1@gmail.com</t>
+          <t>emj98a1@gmail.com</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -998,7 +998,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>bsa96s1@gmail.cfm</t>
+          <t>19a6sbs@gmail.cfm</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>7a4al8r@gmail.cmm</t>
+          <t>l4aa8r7@gmail.cmm</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>11ist0m@gmail.com</t>
+          <t>1it0m1s@gmail.com</t>
         </is>
       </c>
       <c r="L11" t="n">

--- a/output.xlsx
+++ b/output.xlsx
@@ -540,7 +540,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bf3df24420d884ef0277d7b4c7278f200c802f22c42c4d0643473dfa57710ecb</t>
+          <t>nracK lhpkdeRi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>-0</v>
+        <v>153.97</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>484294f5344b66326dccc8a8c464e956f967ebded07680588fbb1cf8a74db2a2</t>
+          <t>rooteerdbat yDeLht</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>-0</v>
+        <v>86.97</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>e8c9a82f31d893fb5afe93c03b33ea32d6395e3a1d28204cc5999a6900785c12</t>
+          <t>R mgrGe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>129.76</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>d1bed64c6dd625f3e1a33370d54558b19cc5b02aeceec79d1356d7fb2f35b605</t>
+          <t>irCa gKgin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>142.67</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>317b044294e4f274c95b49e5b0ac58d409efc316a352954e085903ef7b133ef8</t>
+          <t>LaidB hnne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>103.66</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1819b8769426c0d5b6b38fa335d9ad07690184e43df0546e0cdc22608fe73ad9</t>
+          <t>iv LeaiLann</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>89.38</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1684941aa9cc0a448cf323bd3723567683ee025157ddb4c176acc1ac17f12656</t>
+          <t xml:space="preserve">rsMamyaeJ </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>92.12</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>206b1b076819c17dc75ec6db9585bf4c38895835d538a87b00407955dc9f7a78</t>
+          <t>stBannsh Kee</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>-0</v>
+        <v>94.36</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5aeaac86852a8b60ab25fca09d1c31d3614a5a91ca1864c85b60421a8fa9c49b</t>
+          <t>t aarteahwML</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>101.44</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>f9e88417377336a94b10412d80fbf47e5a3008823884c516a3322dc7ea950843</t>
+          <t>igihmG etSr</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>94.89</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
